--- a/Исключения.xlsx
+++ b/Исключения.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python for BI\Перерывы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A716CC-CDE1-4159-935E-FF29C5A1CF79}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A2870-6B98-4DF2-A4E4-1257C390BA12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2DD0FC74-204E-47FB-96C9-E5C8C5BCDB15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{2DD0FC74-204E-47FB-96C9-E5C8C5BCDB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>ФИО</t>
   </si>
@@ -33,22 +33,13 @@
     <t>Время перерыва</t>
   </si>
   <si>
-    <t>Лемешова А. Е.</t>
+    <t>Лисовская В.В.</t>
   </si>
   <si>
-    <t>Железцова И. А.</t>
+    <t xml:space="preserve">Петрова Н.А. </t>
   </si>
   <si>
-    <t>к65</t>
-  </si>
-  <si>
-    <t>75_2</t>
-  </si>
-  <si>
-    <t>Невежина Ю. И.</t>
-  </si>
-  <si>
-    <t>Казанина Е. Н.</t>
+    <t>65_2</t>
   </si>
 </sst>
 </file>
@@ -103,17 +94,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -127,7 +116,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3DA7A-2246-4848-9135-4B2E568E8C2C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,36 +465,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>55</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
